--- a/biology/Médecine/Sergueï_Botkine/Sergueï_Botkine.xlsx
+++ b/biology/Médecine/Sergueï_Botkine/Sergueï_Botkine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Botkine</t>
+          <t>Sergueï_Botkine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Petrovitch Botkine  (en russe : Серге́й Петро́вич Бо́ткин, né le 17 septembre 1832 à Moscou et mort le 24 décembre 1889 à Menton) est un célèbre médecin russe. Il est à la médecine ce que Pirogov est  à la chirurgie russe. Il donna son nom à la « maladie de Botkine » (ictère cholestatique) et à l'hôpital Botkine (ru) à Moscou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Botkine</t>
+          <t>Sergueï_Botkine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l'université de Moscou, Sergueï Botkine sert en Crimée sous les ordres de Pirogov puis étudie quatre ans dans les facultés européennes. À son retour il obtient la chaire de médecine interne à l'Académie Médico-Chirurgicale en 1860 où il fera l'ensemble de sa carrière. Pavlov fut son plus célèbre assistant. En 1870 il devient médecin personnel du tsar mais doit renoncer à ce poste à cause des activités politiques de sa femme, la princesse Obolenskaïa.
 Décédé le 24 décembre 1889 à Menton d'une crise cardiaque, il est enterré au cimetière de Novodiévitchi de Saint-Pétersbourg.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Botkine</t>
+          <t>Sergueï_Botkine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de l'ordre de Saint-Alexandre Nevski
 Ordre de l'Aigle blanc
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Botkine</t>
+          <t>Sergueï_Botkine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Père - Piotr Kononovich Botkine (1781-1853), marchand de la première guilde et propriétaire d'une grande entreprise de thé, de fabriques de tissus et de sucre, mère - Anna Ivanovna Posnikova (1805-1841). Piotr Botkine a été marié deux fois et a eu 25 enfants, Sergueï Botkine est le onzième enfant du second mariage de son père.
 Son frère Vassili Botkine est un écrivain, critique littéraire et traducteur.
